--- a/Data/RawData/YPE_Data/YPE_75_HooperPeak/Digital Data_YPE75/YPE_Understory_Plot_75.xlsx
+++ b/Data/RawData/YPE_Data/YPE_75_HooperPeak/Digital Data_YPE75/YPE_Understory_Plot_75.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="KAfo73pm9gV2lyw12dyF8YktdAxZvxskviuYwk/XCDM="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Oh6bEOKkfv3eXO7C9LoWet1kRd7POlKFWZoy6+LT2Hs="/>
     </ext>
   </extLst>
 </workbook>
@@ -102,7 +102,7 @@
     <t>litter</t>
   </si>
   <si>
-    <t>Pranus</t>
+    <t>Prunus emarginata</t>
   </si>
   <si>
     <t>ERNU</t>
